--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\githubpage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{389B6DD5-475D-4026-A243-32FC19001A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B47ADF-9024-4521-B1FB-B0FE48D3EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="975" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="315" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>總評分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫羅蘭永恆花園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/10-4/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -95,6 +107,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -131,8 +146,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -413,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -464,26 +481,62 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
       <c r="B3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2">
+        <v>45940</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B47ADF-9024-4521-B1FB-B0FE48D3EEF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B7D5B-35A6-4D9E-9256-EB74C9463D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="315" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="915" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,11 +95,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13/13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1/10-4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+1/13+1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -107,9 +111,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -148,8 +149,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -433,12 +434,12 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,19 +518,19 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="2">
-        <v>45940</v>
+      <c r="B9" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674B7D5B-35A6-4D9E-9256-EB74C9463D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB9B77-67F3-49C4-94CF-43B633EACEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="915" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4305" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>動畫</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>第二季</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -104,6 +100,10 @@
   </si>
   <si>
     <t>13+1/13+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>動畫名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -149,8 +149,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -444,93 +444,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="B6">
         <v>2018</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="2"/>
       <c r="B8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFB9B77-67F3-49C4-94CF-43B633EACEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587AB71-F98A-4865-B98B-C5DEC3DA5437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4305" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4605" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>看過的集數/總集數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播放日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>評分</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,19 +84,113 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1/10-4/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13+1/13+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>動畫名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圖片名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>github圖片倉庫位址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>violet.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼滅之刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>類型</t>
+  </si>
+  <si>
+    <t>類型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>療癒, 溫馨, 反戰, 勵志, 愛情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>少年漫畫, 黑暗奇幻, 時代劇, 獵奇, 冒險, 戰鬥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kei.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總集數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看過的集數</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放日期結束</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播放日期起始</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6/30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>總評分</t>
+  </si>
+  <si>
+    <t>4/4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -147,10 +234,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -431,110 +521,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>0</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>2018</v>
+      </c>
+      <c r="M8" s="3">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="3"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="3"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>2019</v>
+      </c>
+      <c r="D14">
+        <v>2021</v>
+      </c>
+      <c r="E14">
+        <v>2023</v>
+      </c>
+      <c r="F14">
+        <v>2024</v>
+      </c>
+      <c r="M14" s="2">
+        <v>8</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15">
+        <v>26</v>
+      </c>
+      <c r="D15" s="5">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16">
+        <v>26</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>11</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="M16" s="4"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19">
+        <v>8</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="M20:M25"/>
+    <mergeCell ref="N20:N25"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="M26:M31"/>
+    <mergeCell ref="N26:N31"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0587AB71-F98A-4865-B98B-C5DEC3DA5437}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3E976-B1A9-4D9B-9DDA-70C3AD4A3916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4605" yWindow="510" windowWidth="20175" windowHeight="14970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4485" yWindow="510" windowWidth="20175" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -123,10 +123,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>kei.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -191,6 +187,10 @@
   </si>
   <si>
     <t>4/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anime_cover/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -234,13 +234,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -523,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
@@ -591,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N2" s="2" t="s">
         <v>20</v>
@@ -601,7 +599,7 @@
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -610,7 +608,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -619,7 +617,7 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -628,7 +626,7 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -652,7 +650,7 @@
       <c r="C8">
         <v>2018</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>10</v>
       </c>
       <c r="N8" s="2" t="s">
@@ -663,25 +661,25 @@
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" s="2"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -692,14 +690,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="3"/>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -710,7 +708,7 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="3"/>
+      <c r="M12" s="2"/>
       <c r="N12" s="2"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -719,7 +717,7 @@
       <c r="C13">
         <v>10</v>
       </c>
-      <c r="M13" s="3"/>
+      <c r="M13" s="2"/>
       <c r="N13" s="2"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -754,7 +752,7 @@
       <c r="C15">
         <v>26</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15">
         <v>11</v>
       </c>
       <c r="E15">
@@ -763,7 +761,7 @@
       <c r="F15">
         <v>0</v>
       </c>
-      <c r="M15" s="4"/>
+      <c r="M15" s="3"/>
       <c r="N15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -781,23 +779,23 @@
       <c r="F16">
         <v>8</v>
       </c>
-      <c r="M16" s="4"/>
+      <c r="M16" s="3"/>
       <c r="N16" s="2"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
@@ -805,23 +803,23 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="4"/>
+      <c r="M17" s="3"/>
       <c r="N17" s="2"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
@@ -918,6 +916,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="M20:M25"/>
@@ -926,18 +936,6 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="M26:M31"/>
     <mergeCell ref="N26:N31"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -978,7 +976,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -986,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\GitHub\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3E976-B1A9-4D9B-9DDA-70C3AD4A3916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E92D54-BDA5-4D5C-9FA4-11E169F0606B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="510" windowWidth="20175" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4755" yWindow="510" windowWidth="20175" windowHeight="14970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
   <si>
     <t>第一季</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -190,7 +190,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>anime_cover/</t>
+    <t>刀劍神域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VR, MMORPG, 冒險, SF, 戰鬥, 後宮型作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9/20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sao.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anime_covers/</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +574,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -843,38 +895,137 @@
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20">
+        <v>2012</v>
+      </c>
+      <c r="D20">
+        <v>2014</v>
+      </c>
+      <c r="E20">
+        <v>2018</v>
+      </c>
+      <c r="F20">
+        <v>2019</v>
+      </c>
+      <c r="G20">
+        <v>2020</v>
+      </c>
+      <c r="M20" s="2">
+        <v>8</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
+      <c r="C21">
+        <v>25</v>
+      </c>
+      <c r="D21">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
+      <c r="C22">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>24</v>
+      </c>
+      <c r="E22">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>11</v>
+      </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
+      <c r="C24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
+      <c r="C25">
+        <v>9</v>
+      </c>
+      <c r="D25">
+        <v>9</v>
+      </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
     </row>
@@ -916,18 +1067,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="M2:M7"/>
-    <mergeCell ref="N2:N7"/>
-    <mergeCell ref="M8:M13"/>
-    <mergeCell ref="N8:N13"/>
-    <mergeCell ref="M14:M19"/>
-    <mergeCell ref="N14:N19"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="A14:A19"/>
-    <mergeCell ref="B14:B19"/>
     <mergeCell ref="A20:A25"/>
     <mergeCell ref="B20:B25"/>
     <mergeCell ref="M20:M25"/>
@@ -936,6 +1075,18 @@
     <mergeCell ref="B26:B31"/>
     <mergeCell ref="M26:M31"/>
     <mergeCell ref="N26:N31"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="A14:A19"/>
+    <mergeCell ref="B14:B19"/>
+    <mergeCell ref="M2:M7"/>
+    <mergeCell ref="N2:N7"/>
+    <mergeCell ref="M8:M13"/>
+    <mergeCell ref="N8:N13"/>
+    <mergeCell ref="M14:M19"/>
+    <mergeCell ref="N14:N19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -945,7 +1096,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53B67153-A9B1-47E6-9F2F-F7B7EB14E9AD}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -976,7 +1127,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -985,6 +1136,14 @@
       </c>
       <c r="B3" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
